--- a/biology/Médecine/Louis_Poirier_(médecin)/Louis_Poirier_(médecin).xlsx
+++ b/biology/Médecine/Louis_Poirier_(médecin)/Louis_Poirier_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Louis_Poirier_(m%C3%A9decin)</t>
+          <t>Louis_Poirier_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Poirier (1680-1718) est un médecin français, qui eut la charge de Premier médecin du roi à partir de 1715.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Louis_Poirier_(m%C3%A9decin)</t>
+          <t>Louis_Poirier_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Études et docteur
-Il obtient son doctorat de médecine de la faculté de médecine de Paris en 1676. En 1706-1707 il est doyen de cette même faculté[1].
-Carrière de médecin
-En 1712 il est nommé premier médecin du duc de Bretagne, le futur Louis XV[2]. Il devient Premier médecin du roi en septembre 1715, à la mort de Louis XIV.
-Claude-Jean-Baptiste Dodart lui succède à la charge de premier médecin après son décès brutal, le 30 mars 1718[3].
+          <t>Études et docteur</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il obtient son doctorat de médecine de la faculté de médecine de Paris en 1676. En 1706-1707 il est doyen de cette même faculté.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Louis_Poirier_(médecin)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Poirier_(m%C3%A9decin)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière de médecin</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1712 il est nommé premier médecin du duc de Bretagne, le futur Louis XV. Il devient Premier médecin du roi en septembre 1715, à la mort de Louis XIV.
+Claude-Jean-Baptiste Dodart lui succède à la charge de premier médecin après son décès brutal, le 30 mars 1718.
 </t>
         </is>
       </c>
